--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,184 +49,181 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>sound</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -247,9 +244,6 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -262,31 +256,34 @@
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -650,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7378640776699029</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.6037735849056604</v>
+        <v>0.515625</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1069,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1087,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.391304347826087</v>
+        <v>0.3336065573770492</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1119,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6904761904761905</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1137,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.3467213114754099</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L11">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="M11">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>797</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6756756756756757</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.2883817427385892</v>
+        <v>0.2655601659751037</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,37 +1216,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6571428571428571</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.2855093256814921</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L13">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>498</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6050420168067226</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.225</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1319,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.2168674698795181</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5818181818181818</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.1804281345565749</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L16">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5517241379310345</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1437,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.1428571428571428</v>
+        <v>0.1171875</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.09139784946236559</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>169</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5043478260869565</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C19">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.08501314636283962</v>
+        <v>0.08238387379491674</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4888888888888889</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>0.08032128514056225</v>
+        <v>0.05013927576601671</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>229</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4857142857142857</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,31 +1634,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.0317975340687865</v>
+        <v>0.0285899935022742</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1492</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4814814814814815</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4736842105263158</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1747,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.421875</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1765,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4173228346456693</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1791,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1799,13 +1796,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1817,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1825,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3855421686746988</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1843,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1851,13 +1848,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3684210526315789</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1869,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1877,13 +1874,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3571428571428572</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1895,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1903,13 +1900,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3515625</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1921,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1929,13 +1926,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3469387755102041</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1947,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1955,13 +1952,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3217821782178218</v>
+        <v>0.359375</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1973,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1981,13 +1978,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2938388625592417</v>
+        <v>0.359375</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1999,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>149</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2007,13 +2004,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2909090909090909</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2025,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2033,13 +2030,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2808988764044944</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2059,13 +2056,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2777777777777778</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2077,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2085,13 +2082,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2753623188405797</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2103,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2111,13 +2108,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2129,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2137,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.264957264957265</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2163,13 +2160,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2622950819672131</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2181,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2189,13 +2186,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2207,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2215,13 +2212,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.211340206185567</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2241,13 +2238,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1759259259259259</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2259,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2267,13 +2264,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1691394658753709</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2285,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>560</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2293,13 +2290,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1666666666666667</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2311,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2319,13 +2316,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1582278481012658</v>
+        <v>0.1676557863501484</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2337,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>266</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2371,13 +2368,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1497797356828194</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2389,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>386</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2397,13 +2394,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1355140186915888</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2415,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2423,13 +2420,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1337579617834395</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2441,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2449,13 +2446,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1314285714285714</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>152</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2475,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1285714285714286</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2493,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2501,13 +2498,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.115</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2519,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2527,13 +2524,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1147540983606557</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2545,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2553,13 +2550,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1063218390804598</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D56">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2571,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2579,13 +2576,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.101123595505618</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2597,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2605,25 +2602,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09803921568627451</v>
+        <v>0.1</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2631,13 +2628,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08333333333333333</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2649,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>176</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2657,13 +2654,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08064516129032258</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2675,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2683,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07945205479452055</v>
+        <v>0.05427631578947369</v>
       </c>
       <c r="C61">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2701,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>336</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2709,25 +2706,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0642504118616145</v>
+        <v>0.05352112676056338</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>568</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2735,25 +2732,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05379746835443038</v>
+        <v>0.05122494432071269</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E63">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>299</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2761,25 +2758,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0534521158129176</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2787,51 +2784,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04519774011299435</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>17</v>
       </c>
       <c r="E65">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F65">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>24</v>
-      </c>
-      <c r="E66">
-        <v>0.17</v>
-      </c>
-      <c r="F66">
-        <v>0.83</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
